--- a/diverse/tidsplan-V21.xlsx
+++ b/diverse/tidsplan-V21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s12203\repos\met4\diverse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakon/repositories/met4/diverse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75413203-1C4F-489A-9E2C-084A68F84DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB5C62D-C773-014C-ACC5-6F1806CA503B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,29 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Uke</t>
   </si>
   <si>
-    <t>Dato</t>
-  </si>
-  <si>
     <t>Jobbe med</t>
   </si>
   <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
-    <t>Kapittel i lærebok</t>
-  </si>
-  <si>
     <t>PÅSKE</t>
   </si>
   <si>
-    <t>symp 23.-24 mars</t>
-  </si>
-  <si>
     <t>Dataøving 1</t>
   </si>
   <si>
@@ -60,9 +48,6 @@
     <t>Regresjon</t>
   </si>
   <si>
-    <t>Dataøving 3</t>
-  </si>
-  <si>
     <t>Dataøving 4</t>
   </si>
   <si>
@@ -72,12 +57,6 @@
     <t>Avansert regresjon og maskinlæring</t>
   </si>
   <si>
-    <t>Obligatorisk innlevering</t>
-  </si>
-  <si>
-    <t>Oblig frist 26. mars</t>
-  </si>
-  <si>
     <t>Introduksjon til R</t>
   </si>
   <si>
@@ -87,40 +66,25 @@
     <t>Tidsrekker (Tid på datasal)</t>
   </si>
   <si>
-    <t>12. feb: frist for oppmelding av grupper til HEKS</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Nytt pensum</t>
-  </si>
-  <si>
-    <t>Oppgaver</t>
-  </si>
-  <si>
-    <t>Nytt pensum, Oppgaver</t>
-  </si>
-  <si>
-    <t>2-5, 9,10</t>
-  </si>
-  <si>
-    <t>11-13, 15</t>
-  </si>
-  <si>
-    <t>16-18</t>
-  </si>
-  <si>
-    <t>ISLR-link</t>
-  </si>
-  <si>
-    <t>20?**</t>
-  </si>
-  <si>
-    <t>Seminar: Hypotesetesting: er det for enkelt?</t>
-  </si>
-  <si>
-    <t>Seminar: Nyanser innen regresjonsanalyse</t>
+    <t>Dataøving 3/Obligatorisk innlevering</t>
+  </si>
+  <si>
+    <t>Tirsdag 08:15 - 10:00</t>
+  </si>
+  <si>
+    <t>Torsdag 10:15 - 12:00</t>
+  </si>
+  <si>
+    <t>19.01: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>26.01: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>21.01: Introduksjon til R på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>28.01: Oppgaveseminar på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
   </si>
 </sst>
 </file>
@@ -162,9 +126,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,23 +408,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,279 +430,126 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>44214</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>44221</v>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>44228</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>44235</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>44242</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>44249</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
-        <v>44256</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
-        <v>44263</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
-        <v>44270</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
-        <v>44277</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
-        <v>44284</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
-        <v>44291</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
-        <v>44298</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44305</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44340</v>
+      <c r="B14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/diverse/tidsplan-V21.xlsx
+++ b/diverse/tidsplan-V21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakon/repositories/met4/diverse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hakon\repositories\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB5C62D-C773-014C-ACC5-6F1806CA503B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EAFE1D-CAE3-42EB-A54C-577AA27D187D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1905" windowWidth="19350" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Uke</t>
   </si>
@@ -84,7 +84,19 @@
     <t>21.01: Introduksjon til R på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
   </si>
   <si>
-    <t>28.01: Oppgaveseminar på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+    <t>28.01: Oppgaveseminar på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09). Se \@ref(seminar) for oppgaver.</t>
+  </si>
+  <si>
+    <t>02.02: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>04.02: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>09.02: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>11.02: Oppgaveseminar på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09). Se \@ref(seminar) for oppgaver.</t>
   </si>
 </sst>
 </file>
@@ -411,18 +423,18 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -450,7 +462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -464,23 +476,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -488,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -496,7 +520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -504,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -512,7 +536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -520,7 +544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -528,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -536,7 +560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -544,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>

--- a/diverse/tidsplan-V21.xlsx
+++ b/diverse/tidsplan-V21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hakon\repositories\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EAFE1D-CAE3-42EB-A54C-577AA27D187D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D953EB25-342E-4FD9-822B-C4C5DC21F717}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1905" windowWidth="19350" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="1950" windowWidth="24810" windowHeight="11115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Uke</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>11.02: Oppgaveseminar på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09). Se \@ref(seminar) for oppgaver.</t>
+  </si>
+  <si>
+    <t>16.02: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>18.02: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>23.02: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>25.02: Oppgaveseminar på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09). Se \@ref(seminar) for oppgaver.</t>
+  </si>
+  <si>
+    <t>02.03: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>04.03: Oppgaveseminar på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09). Se \@ref(seminar) for oppgaver.</t>
   </si>
 </sst>
 </file>
@@ -423,7 +441,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +529,12 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -519,6 +543,12 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -526,6 +556,12 @@
       </c>
       <c r="B8" t="s">
         <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/diverse/tidsplan-V21.xlsx
+++ b/diverse/tidsplan-V21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hakon\repositories\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D953EB25-342E-4FD9-822B-C4C5DC21F717}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD723F0-FD35-4BD1-933F-EAE97533672C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="1950" windowWidth="24810" windowHeight="11115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22890" yWindow="420" windowWidth="15675" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Uke</t>
   </si>
@@ -115,6 +115,33 @@
   </si>
   <si>
     <t>04.03: Oppgaveseminar på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09). Se \@ref(seminar) for oppgaver.</t>
+  </si>
+  <si>
+    <t>09.03: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>11.03: **Oversiktsforelesning: Hypotesetesting** på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>16.03: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>18.03: Oppgaveseminar på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09). Se \@ref(seminar) for oppgaver.</t>
+  </si>
+  <si>
+    <t>23.03: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>25.03: **Oversiktsforelesning: Regresjon** på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>06.04: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>08.04: Oppgaveseminar på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09). Se \@ref(seminar) for oppgaver.</t>
+  </si>
+  <si>
+    <t>13.04: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
   </si>
 </sst>
 </file>
@@ -441,7 +468,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +598,12 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -579,6 +612,12 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -587,6 +626,12 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -603,6 +648,12 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -610,6 +661,9 @@
       </c>
       <c r="B14" t="s">
         <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/diverse/tidsplan-V21.xlsx
+++ b/diverse/tidsplan-V21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hakon\repositories\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD723F0-FD35-4BD1-933F-EAE97533672C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1F9740-D8CC-487B-AD11-538B265FF5A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22890" yWindow="420" windowWidth="15675" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Uke</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>13.04: Kontakttime, kursansvarlig tilgjengelig på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
+  </si>
+  <si>
+    <t>15.04: Gjesteforelesning med Ole-Petter Hansen, Tryg Forsikring  på [Zoom](https://nhh.zoom.us/j/63633653066?pwd=cTVNV0JvOXl4NnUrMHVKdkw2b0pCZz09).</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,6 +668,9 @@
       <c r="C14" t="s">
         <v>38</v>
       </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
